--- a/Assignment 3 data processing.xlsx
+++ b/Assignment 3 data processing.xlsx
@@ -8,14 +8,15 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\omdel\Desktop\Women+\Assignment 3_9to5\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E087AE28-B4E6-4F41-A885-61935FBA3FA4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{81A85136-3B41-4817-BE85-E2EB8D33C7E8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="11520" yWindow="0" windowWidth="11520" windowHeight="12360" activeTab="2" xr2:uid="{0CA661D9-5E4D-4436-AB3C-D17182C5682F}"/>
+    <workbookView xWindow="5772" yWindow="2256" windowWidth="17280" windowHeight="9780" activeTab="2" xr2:uid="{0CA661D9-5E4D-4436-AB3C-D17182C5682F}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
     <sheet name="Sheet1 (2)" sheetId="2" r:id="rId2"/>
     <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
+    <sheet name="data_type_text  series_title" sheetId="4" r:id="rId4"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -38,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="255" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="332" uniqueCount="144">
   <si>
     <t>Id</t>
   </si>
@@ -314,6 +315,162 @@
   </si>
   <si>
     <t>supersector;</t>
+  </si>
+  <si>
+    <t>supersector_name</t>
+  </si>
+  <si>
+    <t>supersector_code</t>
+  </si>
+  <si>
+    <t>Number of Employees</t>
+  </si>
+  <si>
+    <t>Period / Period_code</t>
+  </si>
+  <si>
+    <t>Code for each month</t>
+  </si>
+  <si>
+    <t>data_type_text / series_title</t>
+  </si>
+  <si>
+    <t>industry (specific)</t>
+  </si>
+  <si>
+    <t>industry (broad)</t>
+  </si>
+  <si>
+    <t>Average hourly earnings of all employees</t>
+  </si>
+  <si>
+    <t>Average weekly hours of all employees</t>
+  </si>
+  <si>
+    <t>Average weekly overtime hours of production and nonsupervisory employees</t>
+  </si>
+  <si>
+    <t>Average weekly hours</t>
+  </si>
+  <si>
+    <t>Average weekly earnings of all employees</t>
+  </si>
+  <si>
+    <t>Average weekly overtime hours</t>
+  </si>
+  <si>
+    <t>Indexes of aggregate weekly payrolls of production and nonsupervisory employees</t>
+  </si>
+  <si>
+    <t>Women employees</t>
+  </si>
+  <si>
+    <t>Average weekly overtime hours of all employees</t>
+  </si>
+  <si>
+    <t>Average hourly earnings of production and nonsupervisory employees</t>
+  </si>
+  <si>
+    <t>Aggregate weekly hours of all employees</t>
+  </si>
+  <si>
+    <t>Indexes of aggregate weekly payrolls of all employees</t>
+  </si>
+  <si>
+    <t>Aggregate weekly payrolls of production and nonsupervisory employees</t>
+  </si>
+  <si>
+    <t>Diffusion indexes</t>
+  </si>
+  <si>
+    <t>Average weekly earnings of production and nonsupervisory employees</t>
+  </si>
+  <si>
+    <t>Indexes of aggregate weekly hours of all employees</t>
+  </si>
+  <si>
+    <t>Indexes of aggregate weekly hours of production and nonsupervisory employees</t>
+  </si>
+  <si>
+    <t>All employees</t>
+  </si>
+  <si>
+    <t>Aggregate weekly overtime hours of production and nonsupervisory employees</t>
+  </si>
+  <si>
+    <t>Aggregate weekly payrolls of all employees</t>
+  </si>
+  <si>
+    <t>Average weekly hours of production and nonsupervisory employees</t>
+  </si>
+  <si>
+    <t>Production and nonsupervisory employees</t>
+  </si>
+  <si>
+    <t>Aggregate weekly hours of production and nonsupervisory employees</t>
+  </si>
+  <si>
+    <t>Aggregate weekly overtime hours of all employees</t>
+  </si>
+  <si>
+    <t>EMPLOYEES</t>
+  </si>
+  <si>
+    <t>HOURS</t>
+  </si>
+  <si>
+    <t>EARNINGS</t>
+  </si>
+  <si>
+    <t>OT HOURS</t>
+  </si>
+  <si>
+    <t>INDEX HOURS</t>
+  </si>
+  <si>
+    <t>INDEX</t>
+  </si>
+  <si>
+    <t>INDEX EARNING</t>
+  </si>
+  <si>
+    <t>PAYROLLS</t>
+  </si>
+  <si>
+    <t>PNS</t>
+  </si>
+  <si>
+    <t>ALL</t>
+  </si>
+  <si>
+    <t>WOMEN</t>
+  </si>
+  <si>
+    <t>WEEKLY</t>
+  </si>
+  <si>
+    <t>HOURLY</t>
+  </si>
+  <si>
+    <t>TITLE</t>
+  </si>
+  <si>
+    <t>TYPE</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ALL EMPLOYEES VS PRODUCTION/ NONSUPERVISOR </t>
+  </si>
+  <si>
+    <t>Code</t>
+  </si>
+  <si>
+    <t>AGG (G) vs AVG (V)</t>
+  </si>
+  <si>
+    <t>V</t>
+  </si>
+  <si>
+    <t>G</t>
   </si>
 </sst>
 </file>
@@ -345,7 +502,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="18">
+  <fills count="20">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -448,8 +605,20 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF33CC33"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="8">
+  <borders count="15">
     <border>
       <left/>
       <right/>
@@ -542,16 +711,86 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="62">
+  <cellXfs count="114">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
@@ -582,7 +821,7 @@
     <xf numFmtId="0" fontId="2" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="7" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -597,10 +836,9 @@
     <xf numFmtId="0" fontId="2" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="10" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
@@ -649,73 +887,215 @@
     <xf numFmtId="0" fontId="1" fillId="17" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="16" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="17" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="8" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="14" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="12" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="17" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="11" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="8" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="14" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="10" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="17" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="8" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="14" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="12" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="16" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="17" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="18" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="18" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="2" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="11" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="8" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="14" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="10" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="11" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="11" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="19" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="19" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="19" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="19" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="19" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="19" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="19" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="19" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="19" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="19" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="19" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="19" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="19" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="19" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="19" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="19" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -725,6 +1105,7 @@
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <colors>
     <mruColors>
+      <color rgb="FF33CC33"/>
       <color rgb="FFFF66FF"/>
       <color rgb="FF9966FF"/>
     </mruColors>
@@ -1039,8 +1420,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B80F0F77-3E67-4B40-B0BE-8C6C2C442072}">
   <dimension ref="A1:H45"/>
   <sheetViews>
-    <sheetView zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="D50" sqref="D50"/>
+    <sheetView topLeftCell="A33" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="C8" sqref="C8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1054,25 +1435,25 @@
       </c>
     </row>
     <row r="2" spans="1:8" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A2" s="7" t="s">
+      <c r="A2" s="6" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="6" t="s">
+      <c r="B2" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="C2" s="10" t="s">
+      <c r="C2" s="9" t="s">
         <v>2</v>
       </c>
-      <c r="D2" s="11" t="s">
+      <c r="D2" s="10" t="s">
         <v>3</v>
       </c>
-      <c r="E2" s="15" t="s">
+      <c r="E2" s="14" t="s">
         <v>4</v>
       </c>
-      <c r="F2" s="14" t="s">
+      <c r="F2" s="13" t="s">
         <v>5</v>
       </c>
-      <c r="G2" s="4" t="s">
+      <c r="G2" s="3" t="s">
         <v>6</v>
       </c>
     </row>
@@ -1085,10 +1466,10 @@
       </c>
     </row>
     <row r="5" spans="1:8" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A5" s="22" t="s">
+      <c r="A5" s="20" t="s">
         <v>7</v>
       </c>
-      <c r="B5" s="21" t="s">
+      <c r="B5" s="19" t="s">
         <v>8</v>
       </c>
     </row>
@@ -1101,26 +1482,26 @@
       </c>
     </row>
     <row r="8" spans="1:8" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A8" s="25" t="s">
+      <c r="A8" s="23" t="s">
         <v>9</v>
       </c>
-      <c r="B8" s="3" t="s">
+      <c r="B8" s="2" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="9" spans="1:8" ht="30" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="13" t="s">
+    <row r="9" spans="1:8" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A9" s="12" t="s">
         <v>11</v>
       </c>
-      <c r="B9" s="13" t="s">
+      <c r="B9" s="12" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="10" spans="1:8" ht="30" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="13" t="s">
+    <row r="10" spans="1:8" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A10" s="12" t="s">
         <v>13</v>
       </c>
-      <c r="B10" s="13" t="s">
+      <c r="B10" s="12" t="s">
         <v>14</v>
       </c>
     </row>
@@ -1132,29 +1513,29 @@
         <v>38</v>
       </c>
     </row>
-    <row r="13" spans="1:8" s="2" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A13" s="7" t="s">
+    <row r="13" spans="1:8" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A13" s="6" t="s">
         <v>0</v>
       </c>
-      <c r="B13" s="9" t="s">
+      <c r="B13" s="8" t="s">
         <v>15</v>
       </c>
-      <c r="C13" s="4" t="s">
+      <c r="C13" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="D13" s="4" t="s">
+      <c r="D13" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="E13" s="4" t="s">
+      <c r="E13" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="F13" s="4" t="s">
+      <c r="F13" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="G13" s="4" t="s">
+      <c r="G13" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="H13" s="4" t="s">
+      <c r="H13" s="3" t="s">
         <v>21</v>
       </c>
     </row>
@@ -1167,25 +1548,25 @@
       </c>
     </row>
     <row r="16" spans="1:8" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A16" s="7" t="s">
+      <c r="A16" s="6" t="s">
         <v>0</v>
       </c>
-      <c r="B16" s="6" t="s">
+      <c r="B16" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="C16" s="10" t="s">
+      <c r="C16" s="9" t="s">
         <v>2</v>
       </c>
-      <c r="D16" s="11" t="s">
+      <c r="D16" s="10" t="s">
         <v>3</v>
       </c>
-      <c r="E16" s="15" t="s">
+      <c r="E16" s="14" t="s">
         <v>4</v>
       </c>
-      <c r="F16" s="24" t="s">
+      <c r="F16" s="22" t="s">
         <v>5</v>
       </c>
-      <c r="G16" s="4" t="s">
+      <c r="G16" s="3" t="s">
         <v>6</v>
       </c>
     </row>
@@ -1198,17 +1579,17 @@
       </c>
     </row>
     <row r="19" spans="1:3" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A19" s="12" t="s">
+      <c r="A19" s="11" t="s">
         <v>24</v>
       </c>
-      <c r="B19" s="4" t="s">
+      <c r="B19" s="3" t="s">
         <v>25</v>
       </c>
-      <c r="C19" s="4" t="s">
+      <c r="C19" s="3" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="20" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
         <v>39</v>
       </c>
@@ -1219,7 +1600,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="21" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
         <v>42</v>
       </c>
@@ -1230,7 +1611,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="22" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
         <v>45</v>
       </c>
@@ -1241,7 +1622,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="23" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
         <v>48</v>
       </c>
@@ -1252,7 +1633,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="24" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
         <v>51</v>
       </c>
@@ -1263,7 +1644,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="25" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
         <v>54</v>
       </c>
@@ -1274,7 +1655,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="26" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
         <v>57</v>
       </c>
@@ -1285,7 +1666,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="27" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A27" t="s">
         <v>60</v>
       </c>
@@ -1296,7 +1677,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="28" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
         <v>63</v>
       </c>
@@ -1307,7 +1688,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="29" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A29" t="s">
         <v>66</v>
       </c>
@@ -1318,7 +1699,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="30" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A30" t="s">
         <v>69</v>
       </c>
@@ -1329,7 +1710,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="31" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
         <v>72</v>
       </c>
@@ -1340,7 +1721,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="32" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A32" t="s">
         <v>75</v>
       </c>
@@ -1360,14 +1741,14 @@
       </c>
     </row>
     <row r="35" spans="1:6" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A35" s="8" t="s">
+      <c r="A35" s="7" t="s">
         <v>15</v>
       </c>
-      <c r="B35" s="20" t="s">
+      <c r="B35" s="18" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="36" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A36" t="s">
         <v>78</v>
       </c>
@@ -1375,7 +1756,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="37" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A37" t="s">
         <v>80</v>
       </c>
@@ -1383,9 +1764,9 @@
         <v>81</v>
       </c>
     </row>
-    <row r="38" spans="1:6" s="19" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A38" s="18"/>
-      <c r="B38" s="18"/>
+    <row r="38" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A38" s="17"/>
+      <c r="B38" s="17"/>
     </row>
     <row r="39" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A39" s="1"/>
@@ -1396,22 +1777,22 @@
       </c>
     </row>
     <row r="41" spans="1:6" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A41" s="5" t="s">
+      <c r="A41" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="B41" s="16" t="s">
+      <c r="B41" s="15" t="s">
         <v>30</v>
       </c>
-      <c r="C41" s="9" t="s">
+      <c r="C41" s="8" t="s">
         <v>15</v>
       </c>
-      <c r="D41" s="23" t="s">
+      <c r="D41" s="21" t="s">
         <v>7</v>
       </c>
-      <c r="E41" s="20" t="s">
+      <c r="E41" s="18" t="s">
         <v>31</v>
       </c>
-      <c r="F41" s="21" t="s">
+      <c r="F41" s="19" t="s">
         <v>32</v>
       </c>
     </row>
@@ -1424,10 +1805,10 @@
       </c>
     </row>
     <row r="44" spans="1:6" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A44" s="17" t="s">
+      <c r="A44" s="16" t="s">
         <v>30</v>
       </c>
-      <c r="B44" s="4" t="s">
+      <c r="B44" s="3" t="s">
         <v>34</v>
       </c>
     </row>
@@ -1442,11 +1823,9 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{63D50853-D1A3-48E0-8AF6-73BDF2C3D7FF}">
-  <dimension ref="A1:Z45"/>
+  <dimension ref="A1:R27"/>
   <sheetViews>
-    <sheetView topLeftCell="A24" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="A28" sqref="A28:XFD45"/>
-    </sheetView>
+    <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
@@ -1457,740 +1836,375 @@
       <c r="A1" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="N1" s="32" t="s">
+      <c r="N1" s="30" t="s">
         <v>35</v>
       </c>
     </row>
     <row r="2" spans="1:18" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A2" s="7" t="s">
+      <c r="A2" s="6" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="6" t="s">
+      <c r="B2" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="C2" s="10" t="s">
+      <c r="C2" s="9" t="s">
         <v>2</v>
       </c>
-      <c r="D2" s="37" t="s">
+      <c r="D2" s="35" t="s">
         <v>3</v>
       </c>
-      <c r="E2" s="15" t="s">
+      <c r="E2" s="14" t="s">
         <v>4</v>
       </c>
-      <c r="F2" s="27" t="s">
+      <c r="F2" s="25" t="s">
         <v>5</v>
       </c>
-      <c r="G2" s="26" t="s">
+      <c r="G2" s="24" t="s">
         <v>6</v>
       </c>
-      <c r="N2" s="33"/>
+      <c r="N2" s="31"/>
     </row>
     <row r="3" spans="1:18" ht="7.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="29"/>
-      <c r="B3" s="30"/>
-      <c r="C3" s="30"/>
-      <c r="D3" s="30"/>
-      <c r="E3" s="30"/>
-      <c r="F3" s="30"/>
-      <c r="G3" s="30"/>
-      <c r="H3" s="30"/>
-      <c r="I3" s="30"/>
-      <c r="J3" s="30"/>
-      <c r="K3" s="30"/>
-      <c r="L3" s="30"/>
-      <c r="M3" s="30"/>
-      <c r="N3" s="34"/>
-      <c r="O3" s="30"/>
-      <c r="P3" s="30"/>
-      <c r="Q3" s="30"/>
-      <c r="R3" s="30"/>
+      <c r="A3" s="27"/>
+      <c r="B3" s="28"/>
+      <c r="C3" s="28"/>
+      <c r="D3" s="28"/>
+      <c r="E3" s="28"/>
+      <c r="F3" s="28"/>
+      <c r="G3" s="28"/>
+      <c r="H3" s="28"/>
+      <c r="I3" s="28"/>
+      <c r="J3" s="28"/>
+      <c r="K3" s="28"/>
+      <c r="L3" s="28"/>
+      <c r="M3" s="28"/>
+      <c r="N3" s="32"/>
+      <c r="O3" s="28"/>
+      <c r="P3" s="28"/>
+      <c r="Q3" s="28"/>
+      <c r="R3" s="28"/>
     </row>
     <row r="4" spans="1:18" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A4" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="N4" s="32" t="s">
+      <c r="N4" s="30" t="s">
         <v>36</v>
       </c>
     </row>
     <row r="5" spans="1:18" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="H5" s="22" t="s">
+      <c r="H5" s="20" t="s">
         <v>7</v>
       </c>
-      <c r="I5" s="21" t="s">
+      <c r="I5" s="19" t="s">
         <v>8</v>
       </c>
-      <c r="N5" s="32"/>
+      <c r="N5" s="30"/>
     </row>
     <row r="6" spans="1:18" ht="7.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="29"/>
-      <c r="B6" s="30"/>
-      <c r="C6" s="30"/>
-      <c r="D6" s="30"/>
-      <c r="E6" s="30"/>
-      <c r="F6" s="30"/>
-      <c r="G6" s="30"/>
-      <c r="H6" s="30"/>
-      <c r="I6" s="30"/>
-      <c r="J6" s="30"/>
-      <c r="K6" s="30"/>
-      <c r="L6" s="30"/>
-      <c r="M6" s="30"/>
-      <c r="N6" s="34"/>
-      <c r="O6" s="30"/>
-      <c r="P6" s="30"/>
-      <c r="Q6" s="30"/>
-      <c r="R6" s="30"/>
+      <c r="A6" s="27"/>
+      <c r="B6" s="28"/>
+      <c r="C6" s="28"/>
+      <c r="D6" s="28"/>
+      <c r="E6" s="28"/>
+      <c r="F6" s="28"/>
+      <c r="G6" s="28"/>
+      <c r="H6" s="28"/>
+      <c r="I6" s="28"/>
+      <c r="J6" s="28"/>
+      <c r="K6" s="28"/>
+      <c r="L6" s="28"/>
+      <c r="M6" s="28"/>
+      <c r="N6" s="32"/>
+      <c r="O6" s="28"/>
+      <c r="P6" s="28"/>
+      <c r="Q6" s="28"/>
+      <c r="R6" s="28"/>
     </row>
     <row r="7" spans="1:18" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A7" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="N7" s="32" t="s">
+      <c r="N7" s="30" t="s">
         <v>37</v>
       </c>
     </row>
     <row r="8" spans="1:18" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="F8" s="28" t="s">
+      <c r="F8" s="26" t="s">
         <v>9</v>
       </c>
-      <c r="N8" s="33"/>
+      <c r="N8" s="31"/>
     </row>
     <row r="9" spans="1:18" ht="7.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="29"/>
-      <c r="B9" s="30"/>
-      <c r="C9" s="30"/>
-      <c r="D9" s="30"/>
-      <c r="E9" s="30"/>
-      <c r="F9" s="30"/>
-      <c r="G9" s="30"/>
-      <c r="H9" s="30"/>
-      <c r="I9" s="30"/>
-      <c r="J9" s="30"/>
-      <c r="K9" s="30"/>
-      <c r="L9" s="30"/>
-      <c r="M9" s="30"/>
-      <c r="N9" s="34"/>
-      <c r="O9" s="30"/>
-      <c r="P9" s="30"/>
-      <c r="Q9" s="30"/>
-      <c r="R9" s="30"/>
+      <c r="A9" s="27"/>
+      <c r="B9" s="28"/>
+      <c r="C9" s="28"/>
+      <c r="D9" s="28"/>
+      <c r="E9" s="28"/>
+      <c r="F9" s="28"/>
+      <c r="G9" s="28"/>
+      <c r="H9" s="28"/>
+      <c r="I9" s="28"/>
+      <c r="J9" s="28"/>
+      <c r="K9" s="28"/>
+      <c r="L9" s="28"/>
+      <c r="M9" s="28"/>
+      <c r="N9" s="32"/>
+      <c r="O9" s="28"/>
+      <c r="P9" s="28"/>
+      <c r="Q9" s="28"/>
+      <c r="R9" s="28"/>
     </row>
     <row r="10" spans="1:18" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A10" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="N10" s="32" t="s">
+      <c r="N10" s="30" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="11" spans="1:18" s="2" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A11" s="7" t="s">
+    <row r="11" spans="1:18" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A11" s="6" t="s">
         <v>0</v>
       </c>
-      <c r="J11" s="8" t="s">
+      <c r="J11" s="7" t="s">
         <v>15</v>
       </c>
-      <c r="M11" s="35" t="s">
+      <c r="M11" s="33" t="s">
         <v>18</v>
       </c>
-      <c r="N11" s="3" t="s">
+      <c r="N11" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="O11" s="4" t="s">
+      <c r="O11" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="P11" s="4" t="s">
+      <c r="P11" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="Q11" s="4" t="s">
+      <c r="Q11" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="R11" s="4" t="s">
+      <c r="R11" s="3" t="s">
         <v>21</v>
       </c>
     </row>
     <row r="12" spans="1:18" ht="7.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="29"/>
-      <c r="B12" s="30"/>
-      <c r="C12" s="30"/>
-      <c r="D12" s="30"/>
-      <c r="E12" s="30"/>
-      <c r="F12" s="30"/>
-      <c r="G12" s="30"/>
-      <c r="H12" s="30"/>
-      <c r="I12" s="30"/>
-      <c r="J12" s="30"/>
-      <c r="K12" s="30"/>
-      <c r="L12" s="30"/>
-      <c r="M12" s="30"/>
-      <c r="N12" s="34"/>
-      <c r="O12" s="30"/>
-      <c r="P12" s="30"/>
-      <c r="Q12" s="30"/>
-      <c r="R12" s="30"/>
+      <c r="A12" s="27"/>
+      <c r="B12" s="28"/>
+      <c r="C12" s="28"/>
+      <c r="D12" s="28"/>
+      <c r="E12" s="28"/>
+      <c r="F12" s="28"/>
+      <c r="G12" s="28"/>
+      <c r="H12" s="28"/>
+      <c r="I12" s="28"/>
+      <c r="J12" s="28"/>
+      <c r="K12" s="28"/>
+      <c r="L12" s="28"/>
+      <c r="M12" s="28"/>
+      <c r="N12" s="32"/>
+      <c r="O12" s="28"/>
+      <c r="P12" s="28"/>
+      <c r="Q12" s="28"/>
+      <c r="R12" s="28"/>
     </row>
     <row r="13" spans="1:18" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A13" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="N13" s="32" t="s">
+      <c r="N13" s="30" t="s">
         <v>22</v>
       </c>
     </row>
     <row r="14" spans="1:18" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A14" s="7" t="s">
+      <c r="A14" s="6" t="s">
         <v>0</v>
       </c>
-      <c r="B14" s="6" t="s">
+      <c r="B14" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="C14" s="10" t="s">
+      <c r="C14" s="9" t="s">
         <v>2</v>
       </c>
-      <c r="D14" s="37" t="s">
+      <c r="D14" s="35" t="s">
         <v>3</v>
       </c>
-      <c r="E14" s="15" t="s">
+      <c r="E14" s="14" t="s">
         <v>4</v>
       </c>
-      <c r="F14" s="27" t="s">
+      <c r="F14" s="25" t="s">
         <v>5</v>
       </c>
-      <c r="G14" s="26" t="s">
+      <c r="G14" s="24" t="s">
         <v>6</v>
       </c>
-      <c r="N14" s="33"/>
+      <c r="N14" s="31"/>
     </row>
     <row r="15" spans="1:18" ht="7.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A15" s="29"/>
-      <c r="B15" s="30"/>
-      <c r="C15" s="30"/>
-      <c r="D15" s="30"/>
-      <c r="E15" s="30"/>
-      <c r="F15" s="30"/>
-      <c r="G15" s="30"/>
-      <c r="H15" s="30"/>
-      <c r="I15" s="30"/>
-      <c r="J15" s="30"/>
-      <c r="K15" s="30"/>
-      <c r="L15" s="30"/>
-      <c r="M15" s="30"/>
-      <c r="N15" s="34"/>
-      <c r="O15" s="30"/>
-      <c r="P15" s="30"/>
-      <c r="Q15" s="30"/>
-      <c r="R15" s="30"/>
+      <c r="A15" s="27"/>
+      <c r="B15" s="28"/>
+      <c r="C15" s="28"/>
+      <c r="D15" s="28"/>
+      <c r="E15" s="28"/>
+      <c r="F15" s="28"/>
+      <c r="G15" s="28"/>
+      <c r="H15" s="28"/>
+      <c r="I15" s="28"/>
+      <c r="J15" s="28"/>
+      <c r="K15" s="28"/>
+      <c r="L15" s="28"/>
+      <c r="M15" s="28"/>
+      <c r="N15" s="32"/>
+      <c r="O15" s="28"/>
+      <c r="P15" s="28"/>
+      <c r="Q15" s="28"/>
+      <c r="R15" s="28"/>
     </row>
     <row r="16" spans="1:18" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A16" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="N16" s="32" t="s">
+      <c r="N16" s="30" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="17" spans="1:25" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="D17" s="36" t="s">
+    <row r="17" spans="1:18" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="D17" s="34" t="s">
         <v>24</v>
       </c>
-      <c r="N17" s="3" t="s">
+      <c r="N17" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="O17" s="4" t="s">
+      <c r="O17" s="3" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="18" spans="1:25" ht="7.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A18" s="29"/>
-      <c r="B18" s="30"/>
-      <c r="C18" s="30"/>
-      <c r="D18" s="30"/>
-      <c r="E18" s="30"/>
-      <c r="F18" s="30"/>
-      <c r="G18" s="30"/>
-      <c r="H18" s="30"/>
-      <c r="I18" s="30"/>
-      <c r="J18" s="30"/>
-      <c r="K18" s="30"/>
-      <c r="L18" s="30"/>
-      <c r="M18" s="30"/>
-      <c r="N18" s="34"/>
-      <c r="O18" s="30"/>
-      <c r="P18" s="30"/>
-      <c r="Q18" s="30"/>
-      <c r="R18" s="30"/>
-    </row>
-    <row r="19" spans="1:25" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:18" ht="7.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A18" s="27"/>
+      <c r="B18" s="28"/>
+      <c r="C18" s="28"/>
+      <c r="D18" s="28"/>
+      <c r="E18" s="28"/>
+      <c r="F18" s="28"/>
+      <c r="G18" s="28"/>
+      <c r="H18" s="28"/>
+      <c r="I18" s="28"/>
+      <c r="J18" s="28"/>
+      <c r="K18" s="28"/>
+      <c r="L18" s="28"/>
+      <c r="M18" s="28"/>
+      <c r="N18" s="32"/>
+      <c r="O18" s="28"/>
+      <c r="P18" s="28"/>
+      <c r="Q18" s="28"/>
+      <c r="R18" s="28"/>
+    </row>
+    <row r="19" spans="1:18" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A19" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="N19" s="32" t="s">
+      <c r="N19" s="30" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="20" spans="1:25" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="J20" s="8" t="s">
+    <row r="20" spans="1:18" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="J20" s="7" t="s">
         <v>15</v>
       </c>
-      <c r="K20" s="20" t="s">
+      <c r="K20" s="18" t="s">
         <v>28</v>
       </c>
-      <c r="N20" s="33"/>
-    </row>
-    <row r="21" spans="1:25" ht="7.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A21" s="29"/>
-      <c r="B21" s="30"/>
-      <c r="C21" s="30"/>
-      <c r="D21" s="30"/>
-      <c r="E21" s="30"/>
-      <c r="F21" s="30"/>
-      <c r="G21" s="30"/>
-      <c r="H21" s="30"/>
-      <c r="I21" s="30"/>
-      <c r="J21" s="30"/>
-      <c r="K21" s="30"/>
-      <c r="L21" s="30"/>
-      <c r="M21" s="30"/>
-      <c r="N21" s="34"/>
-      <c r="O21" s="30"/>
-      <c r="P21" s="30"/>
-      <c r="Q21" s="30"/>
-      <c r="R21" s="30"/>
-    </row>
-    <row r="22" spans="1:25" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="N20" s="31"/>
+    </row>
+    <row r="21" spans="1:18" ht="7.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A21" s="27"/>
+      <c r="B21" s="28"/>
+      <c r="C21" s="28"/>
+      <c r="D21" s="28"/>
+      <c r="E21" s="28"/>
+      <c r="F21" s="28"/>
+      <c r="G21" s="28"/>
+      <c r="H21" s="28"/>
+      <c r="I21" s="28"/>
+      <c r="J21" s="28"/>
+      <c r="K21" s="28"/>
+      <c r="L21" s="28"/>
+      <c r="M21" s="28"/>
+      <c r="N21" s="32"/>
+      <c r="O21" s="28"/>
+      <c r="P21" s="28"/>
+      <c r="Q21" s="28"/>
+      <c r="R21" s="28"/>
+    </row>
+    <row r="22" spans="1:18" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A22" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="N22" s="32" t="s">
+      <c r="N22" s="30" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="23" spans="1:25" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B23" s="5" t="s">
+    <row r="23" spans="1:18" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B23" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="H23" s="22" t="s">
+      <c r="H23" s="20" t="s">
         <v>7</v>
       </c>
-      <c r="I23" s="21" t="s">
+      <c r="I23" s="19" t="s">
         <v>32</v>
       </c>
-      <c r="J23" s="9" t="s">
+      <c r="J23" s="8" t="s">
         <v>15</v>
       </c>
-      <c r="K23" s="20" t="s">
+      <c r="K23" s="18" t="s">
         <v>31</v>
       </c>
-      <c r="L23" s="17" t="s">
+      <c r="L23" s="16" t="s">
         <v>30</v>
       </c>
-      <c r="M23" s="18"/>
-      <c r="N23" s="33"/>
-    </row>
-    <row r="24" spans="1:25" ht="7.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A24" s="29"/>
-      <c r="B24" s="30"/>
-      <c r="C24" s="30"/>
-      <c r="D24" s="30"/>
-      <c r="E24" s="30"/>
-      <c r="F24" s="30"/>
-      <c r="G24" s="30"/>
-      <c r="H24" s="30"/>
-      <c r="I24" s="30"/>
-      <c r="J24" s="30"/>
-      <c r="K24" s="30"/>
-      <c r="L24" s="30"/>
-      <c r="M24" s="30"/>
-      <c r="N24" s="34"/>
-      <c r="O24" s="30"/>
-      <c r="P24" s="30"/>
-      <c r="Q24" s="30"/>
-      <c r="R24" s="30"/>
-    </row>
-    <row r="25" spans="1:25" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="M23" s="17"/>
+      <c r="N23" s="31"/>
+    </row>
+    <row r="24" spans="1:18" ht="7.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A24" s="27"/>
+      <c r="B24" s="28"/>
+      <c r="C24" s="28"/>
+      <c r="D24" s="28"/>
+      <c r="E24" s="28"/>
+      <c r="F24" s="28"/>
+      <c r="G24" s="28"/>
+      <c r="H24" s="28"/>
+      <c r="I24" s="28"/>
+      <c r="J24" s="28"/>
+      <c r="K24" s="28"/>
+      <c r="L24" s="28"/>
+      <c r="M24" s="28"/>
+      <c r="N24" s="32"/>
+      <c r="O24" s="28"/>
+      <c r="P24" s="28"/>
+      <c r="Q24" s="28"/>
+      <c r="R24" s="28"/>
+    </row>
+    <row r="25" spans="1:18" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A25" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="N25" s="32" t="s">
+      <c r="N25" s="30" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="26" spans="1:25" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="L26" s="31" t="s">
+    <row r="26" spans="1:18" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="L26" s="29" t="s">
         <v>30</v>
       </c>
-      <c r="M26" s="35" t="s">
+      <c r="M26" s="33" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="27" spans="1:25" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A27" s="1"/>
-    </row>
-    <row r="28" spans="1:25" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A28" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="B28" s="7" t="s">
-        <v>0</v>
-      </c>
-      <c r="C28" s="29"/>
-      <c r="D28" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="F28" s="29"/>
-      <c r="G28" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="I28" s="29"/>
-      <c r="J28" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="K28" s="7" t="s">
-        <v>0</v>
-      </c>
-      <c r="L28" s="29"/>
-      <c r="M28" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="N28" s="7" t="s">
-        <v>0</v>
-      </c>
-      <c r="O28" s="29"/>
-      <c r="P28" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="R28" s="29"/>
-      <c r="S28" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="U28" s="29"/>
-      <c r="V28" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="X28" s="29"/>
-      <c r="Y28" s="1" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="29" spans="1:25" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B29" s="6" t="s">
-        <v>1</v>
-      </c>
-      <c r="C29" s="30"/>
-      <c r="F29" s="30"/>
-      <c r="I29" s="30"/>
-      <c r="K29" s="2"/>
-      <c r="L29" s="30"/>
-      <c r="N29" s="6" t="s">
-        <v>1</v>
-      </c>
-      <c r="O29" s="30"/>
-      <c r="R29" s="30"/>
-      <c r="U29" s="30"/>
-      <c r="W29" s="5" t="s">
-        <v>1</v>
-      </c>
-      <c r="X29" s="30"/>
-    </row>
-    <row r="30" spans="1:25" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B30" s="10" t="s">
-        <v>2</v>
-      </c>
-      <c r="C30" s="30"/>
-      <c r="F30" s="30"/>
-      <c r="I30" s="30"/>
-      <c r="K30" s="2"/>
-      <c r="L30" s="30"/>
-      <c r="N30" s="10" t="s">
-        <v>2</v>
-      </c>
-      <c r="O30" s="30"/>
-      <c r="R30" s="30"/>
-      <c r="U30" s="30"/>
-      <c r="X30" s="30"/>
-    </row>
-    <row r="31" spans="1:25" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B31" s="37" t="s">
-        <v>3</v>
-      </c>
-      <c r="C31" s="30"/>
-      <c r="F31" s="30"/>
-      <c r="I31" s="30"/>
-      <c r="K31" s="2"/>
-      <c r="L31" s="30"/>
-      <c r="N31" s="37" t="s">
-        <v>3</v>
-      </c>
-      <c r="O31" s="30"/>
-      <c r="Q31" s="36" t="s">
-        <v>24</v>
-      </c>
-      <c r="R31" s="30"/>
-      <c r="U31" s="30"/>
-      <c r="X31" s="30"/>
-    </row>
-    <row r="32" spans="1:25" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B32" s="15" t="s">
-        <v>4</v>
-      </c>
-      <c r="C32" s="30"/>
-      <c r="F32" s="30"/>
-      <c r="I32" s="30"/>
-      <c r="K32" s="2"/>
-      <c r="L32" s="30"/>
-      <c r="N32" s="15" t="s">
-        <v>4</v>
-      </c>
-      <c r="O32" s="30"/>
-      <c r="R32" s="30"/>
-      <c r="U32" s="30"/>
-      <c r="X32" s="30"/>
-    </row>
-    <row r="33" spans="1:26" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B33" s="27" t="s">
-        <v>5</v>
-      </c>
-      <c r="C33" s="30"/>
-      <c r="F33" s="30"/>
-      <c r="H33" s="28" t="s">
-        <v>9</v>
-      </c>
-      <c r="I33" s="30"/>
-      <c r="K33" s="2"/>
-      <c r="L33" s="30"/>
-      <c r="N33" s="27" t="s">
-        <v>5</v>
-      </c>
-      <c r="O33" s="30"/>
-      <c r="R33" s="30"/>
-      <c r="U33" s="30"/>
-      <c r="X33" s="30"/>
-    </row>
-    <row r="34" spans="1:26" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B34" s="26" t="s">
-        <v>6</v>
-      </c>
-      <c r="C34" s="30"/>
-      <c r="F34" s="30"/>
-      <c r="I34" s="30"/>
-      <c r="K34" s="2"/>
-      <c r="L34" s="30"/>
-      <c r="N34" s="26" t="s">
-        <v>6</v>
-      </c>
-      <c r="O34" s="30"/>
-      <c r="R34" s="30"/>
-      <c r="U34" s="30"/>
-      <c r="X34" s="30"/>
-    </row>
-    <row r="35" spans="1:26" ht="29.4" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="C35" s="30"/>
-      <c r="E35" s="22" t="s">
-        <v>7</v>
-      </c>
-      <c r="F35" s="30"/>
-      <c r="I35" s="30"/>
-      <c r="K35" s="2"/>
-      <c r="L35" s="30"/>
-      <c r="O35" s="30"/>
-      <c r="R35" s="30"/>
-      <c r="U35" s="30"/>
-      <c r="W35" s="22" t="s">
-        <v>7</v>
-      </c>
-      <c r="X35" s="30"/>
-    </row>
-    <row r="36" spans="1:26" ht="29.4" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="C36" s="30"/>
-      <c r="E36" s="21" t="s">
-        <v>8</v>
-      </c>
-      <c r="F36" s="30"/>
-      <c r="I36" s="30"/>
-      <c r="K36" s="2"/>
-      <c r="L36" s="30"/>
-      <c r="O36" s="30"/>
-      <c r="R36" s="30"/>
-      <c r="U36" s="30"/>
-      <c r="W36" s="21" t="s">
-        <v>32</v>
-      </c>
-      <c r="X36" s="30"/>
-    </row>
-    <row r="37" spans="1:26" ht="29.4" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="C37" s="30"/>
-      <c r="F37" s="30"/>
-      <c r="I37" s="30"/>
-      <c r="K37" s="8" t="s">
-        <v>15</v>
-      </c>
-      <c r="L37" s="30"/>
-      <c r="O37" s="30"/>
-      <c r="R37" s="30"/>
-      <c r="T37" s="8" t="s">
-        <v>15</v>
-      </c>
-      <c r="U37" s="30"/>
-      <c r="W37" s="9" t="s">
-        <v>15</v>
-      </c>
-      <c r="X37" s="30"/>
-    </row>
-    <row r="38" spans="1:26" ht="29.4" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="C38" s="30"/>
-      <c r="F38" s="30"/>
-      <c r="I38" s="30"/>
-      <c r="K38" s="2"/>
-      <c r="L38" s="30"/>
-      <c r="O38" s="30"/>
-      <c r="R38" s="30"/>
-      <c r="T38" s="20" t="s">
-        <v>28</v>
-      </c>
-      <c r="U38" s="30"/>
-      <c r="W38" s="20" t="s">
-        <v>31</v>
-      </c>
-      <c r="X38" s="30"/>
-    </row>
-    <row r="39" spans="1:26" ht="29.4" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="C39" s="30"/>
-      <c r="F39" s="30"/>
-      <c r="I39" s="30"/>
-      <c r="K39" s="2"/>
-      <c r="L39" s="30"/>
-      <c r="O39" s="30"/>
-      <c r="R39" s="30"/>
-      <c r="U39" s="30"/>
-      <c r="W39" s="17" t="s">
-        <v>30</v>
-      </c>
-      <c r="X39" s="30"/>
-      <c r="Z39" s="31" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="40" spans="1:26" ht="43.8" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="C40" s="30"/>
-      <c r="F40" s="30"/>
-      <c r="I40" s="30"/>
-      <c r="K40" s="35" t="s">
-        <v>18</v>
-      </c>
-      <c r="L40" s="30"/>
-      <c r="O40" s="30"/>
-      <c r="R40" s="30"/>
-      <c r="U40" s="30"/>
-      <c r="W40" s="18"/>
-      <c r="X40" s="30"/>
-      <c r="Z40" s="35" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="41" spans="1:26" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A41" s="32" t="s">
-        <v>35</v>
-      </c>
-      <c r="B41" s="33"/>
-      <c r="C41" s="34"/>
-      <c r="D41" s="32" t="s">
-        <v>36</v>
-      </c>
-      <c r="E41" s="32"/>
-      <c r="F41" s="34"/>
-      <c r="G41" s="32" t="s">
-        <v>37</v>
-      </c>
-      <c r="H41" s="33"/>
-      <c r="I41" s="34"/>
-      <c r="J41" s="32" t="s">
-        <v>38</v>
-      </c>
-      <c r="K41" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="L41" s="34"/>
-      <c r="M41" s="32" t="s">
-        <v>22</v>
-      </c>
-      <c r="N41" s="33"/>
-      <c r="O41" s="34"/>
-      <c r="P41" s="32" t="s">
-        <v>23</v>
-      </c>
-      <c r="Q41" s="3" t="s">
-        <v>25</v>
-      </c>
-      <c r="R41" s="34"/>
-      <c r="S41" s="32" t="s">
-        <v>27</v>
-      </c>
-      <c r="T41" s="33"/>
-      <c r="U41" s="34"/>
-      <c r="V41" s="32" t="s">
-        <v>29</v>
-      </c>
-      <c r="W41" s="33"/>
-      <c r="X41" s="34"/>
-      <c r="Y41" s="32" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="42" spans="1:26" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="C42" s="30"/>
-      <c r="F42" s="30"/>
-      <c r="I42" s="30"/>
-      <c r="K42" s="4" t="s">
-        <v>17</v>
-      </c>
-      <c r="L42" s="30"/>
-      <c r="O42" s="30"/>
-      <c r="Q42" s="4" t="s">
-        <v>26</v>
-      </c>
-      <c r="R42" s="30"/>
-      <c r="U42" s="30"/>
-      <c r="X42" s="30"/>
-    </row>
-    <row r="43" spans="1:26" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="C43" s="30"/>
-      <c r="F43" s="30"/>
-      <c r="I43" s="30"/>
-      <c r="K43" s="4" t="s">
-        <v>19</v>
-      </c>
-      <c r="L43" s="30"/>
-      <c r="O43" s="30"/>
-      <c r="R43" s="30"/>
-      <c r="U43" s="30"/>
-      <c r="X43" s="30"/>
-    </row>
-    <row r="44" spans="1:26" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="C44" s="30"/>
-      <c r="F44" s="30"/>
-      <c r="I44" s="30"/>
-      <c r="K44" s="4" t="s">
-        <v>20</v>
-      </c>
-      <c r="L44" s="30"/>
-      <c r="O44" s="30"/>
-      <c r="R44" s="30"/>
-      <c r="U44" s="30"/>
-      <c r="X44" s="30"/>
-    </row>
-    <row r="45" spans="1:26" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="C45" s="30"/>
-      <c r="F45" s="30"/>
-      <c r="I45" s="30"/>
-      <c r="K45" s="4" t="s">
-        <v>21</v>
-      </c>
-      <c r="L45" s="30"/>
-      <c r="O45" s="30"/>
-      <c r="R45" s="30"/>
-      <c r="U45" s="30"/>
-      <c r="X45" s="30"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -2200,316 +2214,1024 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{84B55F84-096A-4784-9AAD-C0E7C38815C0}">
-  <dimension ref="A1:I20"/>
+  <dimension ref="A1:I28"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
-      <selection activeCell="A11" sqref="A11:XFD11"/>
+    <sheetView tabSelected="1" topLeftCell="A2" workbookViewId="0">
+      <selection activeCell="E5" sqref="E5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="9" width="20.77734375" customWidth="1"/>
+    <col min="1" max="7" width="15.77734375" style="57" customWidth="1"/>
+    <col min="8" max="9" width="16.77734375" style="57" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A1" t="s">
+    <row r="1" spans="1:9" s="51" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A1" s="53" t="s">
         <v>83</v>
       </c>
-    </row>
-    <row r="2" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A2" s="1" t="s">
+      <c r="B1" s="53"/>
+      <c r="C1" s="53"/>
+      <c r="D1" s="53"/>
+      <c r="E1" s="53"/>
+      <c r="F1" s="53"/>
+      <c r="G1" s="53"/>
+      <c r="H1" s="53"/>
+      <c r="I1" s="53"/>
+    </row>
+    <row r="2" spans="1:9" s="51" customFormat="1" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A2" s="54" t="s">
         <v>82</v>
       </c>
-      <c r="B2" s="32" t="s">
+      <c r="B2" s="55" t="s">
         <v>84</v>
       </c>
-      <c r="C2" s="32" t="s">
+      <c r="C2" s="55" t="s">
         <v>85</v>
       </c>
-      <c r="D2" s="32" t="s">
+      <c r="D2" s="55" t="s">
         <v>86</v>
       </c>
-      <c r="E2" s="32" t="s">
+      <c r="E2" s="55" t="s">
         <v>87</v>
       </c>
-      <c r="F2" s="32" t="s">
+      <c r="F2" s="55" t="s">
         <v>88</v>
       </c>
-      <c r="G2" s="32" t="s">
+      <c r="G2" s="55" t="s">
         <v>89</v>
       </c>
-      <c r="H2" s="32" t="s">
+      <c r="H2" s="55" t="s">
         <v>90</v>
       </c>
-      <c r="I2" s="32" t="s">
+      <c r="I2" s="55" t="s">
         <v>91</v>
       </c>
     </row>
-    <row r="3" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A3" s="41" t="s">
+    <row r="3" spans="1:9" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A3" s="52" t="s">
         <v>0</v>
       </c>
-      <c r="B3" s="33"/>
-      <c r="C3" s="33"/>
-      <c r="D3" s="41" t="s">
+      <c r="B3" s="56"/>
+      <c r="C3" s="56"/>
+      <c r="D3" s="6" t="s">
         <v>0</v>
       </c>
-      <c r="E3" s="41" t="s">
+      <c r="E3" s="52" t="s">
         <v>0</v>
       </c>
-      <c r="F3" s="33"/>
-      <c r="G3" s="33"/>
-      <c r="H3" s="33"/>
-      <c r="I3" s="33"/>
-    </row>
-    <row r="4" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A4" s="42" t="s">
+      <c r="F3" s="56"/>
+      <c r="G3" s="56"/>
+      <c r="H3" s="56"/>
+      <c r="I3" s="56"/>
+    </row>
+    <row r="4" spans="1:9" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A4" s="63" t="s">
         <v>1</v>
       </c>
-      <c r="B4" s="33"/>
-      <c r="C4" s="33"/>
-      <c r="D4" s="56"/>
-      <c r="E4" s="54" t="s">
+      <c r="B4" s="56"/>
+      <c r="C4" s="56"/>
+      <c r="D4" s="61"/>
+      <c r="E4" s="64" t="s">
         <v>1</v>
       </c>
-      <c r="F4" s="33"/>
-      <c r="G4" s="33"/>
-      <c r="H4" s="54" t="s">
+      <c r="F4" s="56"/>
+      <c r="G4" s="56"/>
+      <c r="H4" s="64" t="s">
         <v>1</v>
       </c>
-      <c r="I4" s="33"/>
-    </row>
-    <row r="5" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A5" s="43" t="s">
+      <c r="I4" s="56"/>
+    </row>
+    <row r="5" spans="1:9" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A5" s="36" t="s">
         <v>2</v>
       </c>
-      <c r="B5" s="33"/>
-      <c r="C5" s="33"/>
-      <c r="D5" s="56"/>
-      <c r="E5" s="57" t="s">
+      <c r="B5" s="56"/>
+      <c r="C5" s="56"/>
+      <c r="D5" s="61"/>
+      <c r="E5" s="47" t="s">
         <v>2</v>
       </c>
-      <c r="F5" s="33"/>
-      <c r="G5" s="33"/>
-      <c r="H5" s="33"/>
-      <c r="I5" s="33"/>
-    </row>
-    <row r="6" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A6" s="44" t="s">
+      <c r="F5" s="56"/>
+      <c r="G5" s="56"/>
+      <c r="H5" s="56"/>
+      <c r="I5" s="56"/>
+    </row>
+    <row r="6" spans="1:9" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A6" s="37" t="s">
         <v>3</v>
       </c>
-      <c r="B6" s="33"/>
-      <c r="C6" s="33"/>
-      <c r="D6" s="56"/>
-      <c r="E6" s="53" t="s">
+      <c r="B6" s="56"/>
+      <c r="C6" s="56"/>
+      <c r="D6" s="61"/>
+      <c r="E6" s="45" t="s">
         <v>3</v>
       </c>
-      <c r="F6" s="53" t="s">
+      <c r="F6" s="34" t="s">
         <v>24</v>
       </c>
-      <c r="G6" s="33"/>
-      <c r="H6" s="33"/>
-      <c r="I6" s="33"/>
-    </row>
-    <row r="7" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A7" s="45" t="s">
+      <c r="G6" s="56"/>
+      <c r="H6" s="56"/>
+      <c r="I6" s="56"/>
+    </row>
+    <row r="7" spans="1:9" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A7" s="38" t="s">
         <v>4</v>
       </c>
-      <c r="B7" s="33"/>
-      <c r="C7" s="33"/>
-      <c r="D7" s="56"/>
-      <c r="E7" s="58" t="s">
+      <c r="B7" s="56"/>
+      <c r="C7" s="56"/>
+      <c r="D7" s="61"/>
+      <c r="E7" s="48" t="s">
         <v>4</v>
       </c>
-      <c r="F7" s="33"/>
-      <c r="G7" s="33"/>
-      <c r="H7" s="33"/>
-      <c r="I7" s="33"/>
-    </row>
-    <row r="8" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A8" s="46" t="s">
+      <c r="F7" s="56"/>
+      <c r="G7" s="56"/>
+      <c r="H7" s="56"/>
+      <c r="I7" s="56"/>
+    </row>
+    <row r="8" spans="1:9" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A8" s="39" t="s">
         <v>5</v>
       </c>
-      <c r="B8" s="33"/>
-      <c r="C8" s="49" t="s">
+      <c r="B8" s="56"/>
+      <c r="C8" s="42" t="s">
         <v>9</v>
       </c>
-      <c r="D8" s="56"/>
-      <c r="E8" s="49" t="s">
+      <c r="D8" s="61"/>
+      <c r="E8" s="42" t="s">
         <v>5</v>
       </c>
-      <c r="F8" s="33"/>
-      <c r="G8" s="33"/>
-      <c r="H8" s="33"/>
-      <c r="I8" s="33"/>
-    </row>
-    <row r="9" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A9" s="47" t="s">
+      <c r="F8" s="56"/>
+      <c r="G8" s="56"/>
+      <c r="H8" s="56"/>
+      <c r="I8" s="56"/>
+    </row>
+    <row r="9" spans="1:9" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A9" s="40" t="s">
         <v>6</v>
       </c>
-      <c r="B9" s="33"/>
-      <c r="C9" s="33"/>
-      <c r="D9" s="56"/>
-      <c r="E9" s="59" t="s">
+      <c r="B9" s="56"/>
+      <c r="C9" s="56"/>
+      <c r="D9" s="61"/>
+      <c r="E9" s="49" t="s">
         <v>6</v>
       </c>
-      <c r="F9" s="33"/>
-      <c r="G9" s="33"/>
-      <c r="H9" s="33"/>
-      <c r="I9" s="33"/>
-    </row>
-    <row r="10" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B10" s="48" t="s">
+      <c r="F9" s="56"/>
+      <c r="G9" s="56"/>
+      <c r="H9" s="56"/>
+      <c r="I9" s="56"/>
+    </row>
+    <row r="10" spans="1:9" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B10" s="41" t="s">
         <v>7</v>
       </c>
-      <c r="C10" s="33"/>
-      <c r="D10" s="56"/>
-      <c r="E10" s="33"/>
-      <c r="F10" s="33"/>
-      <c r="G10" s="33"/>
-      <c r="H10" s="48" t="s">
+      <c r="C10" s="56"/>
+      <c r="D10" s="61"/>
+      <c r="E10" s="56"/>
+      <c r="F10" s="56"/>
+      <c r="G10" s="56"/>
+      <c r="H10" s="41" t="s">
         <v>7</v>
       </c>
-      <c r="I10" s="33"/>
-    </row>
-    <row r="11" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B11" s="55" t="s">
+      <c r="I10" s="56"/>
+    </row>
+    <row r="11" spans="1:9" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B11" s="46" t="s">
         <v>8</v>
       </c>
-      <c r="C11" s="33"/>
-      <c r="D11" s="56"/>
-      <c r="E11" s="33"/>
-      <c r="F11" s="33"/>
-      <c r="G11" s="33"/>
-      <c r="H11" s="55" t="s">
+      <c r="C11" s="56"/>
+      <c r="D11" s="61"/>
+      <c r="E11" s="56"/>
+      <c r="F11" s="56"/>
+      <c r="G11" s="56"/>
+      <c r="H11" s="46" t="s">
         <v>32</v>
       </c>
-      <c r="I11" s="33"/>
-    </row>
-    <row r="12" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B12" s="33"/>
-      <c r="C12" s="33"/>
-      <c r="D12" s="50" t="s">
+      <c r="I11" s="56"/>
+    </row>
+    <row r="12" spans="1:9" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B12" s="56"/>
+      <c r="C12" s="56"/>
+      <c r="D12" s="7" t="s">
         <v>15</v>
       </c>
-      <c r="E12" s="33"/>
-      <c r="F12" s="33"/>
-      <c r="G12" s="50" t="s">
+      <c r="E12" s="56"/>
+      <c r="F12" s="56"/>
+      <c r="G12" s="43" t="s">
         <v>15</v>
       </c>
-      <c r="H12" s="50" t="s">
+      <c r="H12" s="43" t="s">
         <v>15</v>
       </c>
-      <c r="I12" s="33"/>
-    </row>
-    <row r="13" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B13" s="33"/>
-      <c r="C13" s="33"/>
-      <c r="D13" s="56"/>
-      <c r="E13" s="33"/>
-      <c r="F13" s="33"/>
-      <c r="G13" s="60" t="s">
+      <c r="I12" s="56"/>
+    </row>
+    <row r="13" spans="1:9" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B13" s="56"/>
+      <c r="C13" s="56"/>
+      <c r="D13" s="61"/>
+      <c r="E13" s="56"/>
+      <c r="F13" s="56"/>
+      <c r="G13" s="50" t="s">
         <v>28</v>
       </c>
-      <c r="H13" s="60" t="s">
+      <c r="H13" s="50" t="s">
         <v>31</v>
       </c>
-      <c r="I13" s="33"/>
-    </row>
-    <row r="14" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B14" s="33"/>
-      <c r="C14" s="33"/>
-      <c r="D14" s="56"/>
-      <c r="E14" s="33"/>
-      <c r="F14" s="33"/>
-      <c r="G14" s="33"/>
-      <c r="H14" s="31" t="s">
-        <v>30</v>
-      </c>
-      <c r="I14" s="31" t="s">
-        <v>30</v>
+      <c r="I13" s="56"/>
+    </row>
+    <row r="14" spans="1:9" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B14" s="56"/>
+      <c r="C14" s="56"/>
+      <c r="D14" s="61"/>
+      <c r="E14" s="56"/>
+      <c r="F14" s="56"/>
+      <c r="G14" s="56"/>
+      <c r="H14" s="29" t="s">
+        <v>93</v>
+      </c>
+      <c r="I14" s="16" t="s">
+        <v>93</v>
       </c>
     </row>
     <row r="15" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B15" s="33"/>
-      <c r="C15" s="33"/>
-      <c r="D15" s="51" t="s">
+      <c r="A15" s="58"/>
+      <c r="B15" s="59"/>
+      <c r="C15" s="58"/>
+      <c r="D15" s="60" t="s">
         <v>18</v>
       </c>
-      <c r="E15" s="33"/>
-      <c r="F15" s="33"/>
-      <c r="G15" s="33"/>
-      <c r="H15" s="61"/>
-      <c r="I15" s="38" t="s">
-        <v>34</v>
+      <c r="E15" s="58"/>
+      <c r="F15" s="44" t="s">
+        <v>25</v>
+      </c>
+      <c r="G15" s="58"/>
+      <c r="H15" s="58"/>
+      <c r="I15" s="62" t="s">
+        <v>92</v>
       </c>
     </row>
     <row r="16" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A16" s="39"/>
-      <c r="B16" s="40"/>
-      <c r="C16" s="39"/>
-      <c r="D16" s="52" t="s">
+      <c r="B16" s="56"/>
+      <c r="C16" s="56"/>
+      <c r="D16" s="44" t="s">
         <v>16</v>
       </c>
-      <c r="E16" s="39"/>
-      <c r="F16" s="52" t="s">
-        <v>25</v>
-      </c>
-      <c r="G16" s="39"/>
-      <c r="H16" s="39"/>
-      <c r="I16" s="39"/>
-    </row>
-    <row r="17" spans="2:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B17" s="33"/>
-      <c r="C17" s="33"/>
-      <c r="D17" s="52" t="s">
+      <c r="E16" s="56"/>
+      <c r="F16" s="44" t="s">
+        <v>26</v>
+      </c>
+      <c r="G16" s="56"/>
+      <c r="H16" s="56"/>
+      <c r="I16" s="56"/>
+    </row>
+    <row r="17" spans="1:9" ht="15.6" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B17" s="56"/>
+      <c r="C17" s="56"/>
+      <c r="D17" s="44" t="s">
         <v>17</v>
       </c>
-      <c r="E17" s="33"/>
-      <c r="F17" s="52" t="s">
-        <v>26</v>
-      </c>
-      <c r="G17" s="33"/>
-      <c r="H17" s="33"/>
-      <c r="I17" s="33"/>
-    </row>
-    <row r="18" spans="2:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B18" s="33"/>
-      <c r="C18" s="33"/>
-      <c r="D18" s="52" t="s">
+      <c r="E17" s="56"/>
+      <c r="F17" s="56"/>
+      <c r="G17" s="56"/>
+      <c r="H17" s="56"/>
+      <c r="I17" s="56"/>
+    </row>
+    <row r="18" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B18" s="56"/>
+      <c r="C18" s="56"/>
+      <c r="D18" s="44" t="s">
         <v>19</v>
       </c>
-      <c r="E18" s="33"/>
-      <c r="F18" s="33"/>
-      <c r="G18" s="33"/>
-      <c r="H18" s="33"/>
-      <c r="I18" s="33"/>
-    </row>
-    <row r="19" spans="2:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B19" s="33"/>
-      <c r="C19" s="33"/>
-      <c r="D19" s="52" t="s">
+      <c r="E18" s="56"/>
+      <c r="F18" s="56"/>
+      <c r="G18" s="56"/>
+      <c r="H18" s="56"/>
+      <c r="I18" s="56"/>
+    </row>
+    <row r="19" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B19" s="56"/>
+      <c r="C19" s="56"/>
+      <c r="D19" s="44" t="s">
         <v>20</v>
       </c>
-      <c r="E19" s="33"/>
-      <c r="F19" s="33"/>
-      <c r="G19" s="33"/>
-      <c r="H19" s="33"/>
-      <c r="I19" s="33"/>
-    </row>
-    <row r="20" spans="2:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B20" s="33"/>
-      <c r="C20" s="33"/>
-      <c r="D20" s="52" t="s">
+      <c r="E19" s="56"/>
+      <c r="F19" s="56"/>
+      <c r="G19" s="56"/>
+      <c r="H19" s="56"/>
+      <c r="I19" s="56"/>
+    </row>
+    <row r="20" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B20" s="56"/>
+      <c r="C20" s="56"/>
+      <c r="D20" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="E20" s="33"/>
-      <c r="F20" s="33"/>
-      <c r="G20" s="33"/>
-      <c r="H20" s="33"/>
-      <c r="I20" s="33"/>
+      <c r="E20" s="56"/>
+      <c r="F20" s="56"/>
+      <c r="G20" s="56"/>
+      <c r="H20" s="56"/>
+      <c r="I20" s="56"/>
+    </row>
+    <row r="23" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="24" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A24" s="66" t="s">
+        <v>4</v>
+      </c>
+      <c r="B24" s="65" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="25" spans="1:9" ht="29.4" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A25" s="34" t="s">
+        <v>95</v>
+      </c>
+      <c r="B25" s="65" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="26" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A26" s="69" t="s">
+        <v>15</v>
+      </c>
+      <c r="B26" s="57" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="27" spans="1:9" ht="29.4" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A27" s="16" t="s">
+        <v>93</v>
+      </c>
+      <c r="B27" s="57" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="28" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A28" s="67"/>
+      <c r="B28" s="68"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C8DC61B4-E65A-4AA8-A3E7-39BBEBF7C0E0}">
+  <dimension ref="A1:F39"/>
+  <sheetViews>
+    <sheetView topLeftCell="A15" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B21" sqref="B21"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="2" max="2" width="69.33203125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="10.88671875" customWidth="1"/>
+    <col min="5" max="5" width="27.88671875" customWidth="1"/>
+    <col min="6" max="6" width="16" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:6" s="51" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A1" s="70" t="s">
+        <v>97</v>
+      </c>
+      <c r="B1" s="73"/>
+      <c r="C1" s="73"/>
+      <c r="D1" s="73"/>
+      <c r="E1" s="73"/>
+      <c r="F1" s="71"/>
+    </row>
+    <row r="2" spans="1:6" s="51" customFormat="1" ht="51.6" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A2" s="72" t="s">
+        <v>140</v>
+      </c>
+      <c r="B2" s="72" t="s">
+        <v>137</v>
+      </c>
+      <c r="C2" s="72" t="s">
+        <v>141</v>
+      </c>
+      <c r="D2" s="74" t="s">
+        <v>136</v>
+      </c>
+      <c r="E2" s="74" t="s">
+        <v>139</v>
+      </c>
+      <c r="F2" s="74" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A3" s="82">
+        <v>13</v>
+      </c>
+      <c r="B3" s="83" t="s">
+        <v>100</v>
+      </c>
+      <c r="C3" s="83"/>
+      <c r="D3" s="84"/>
+      <c r="E3" s="84"/>
+      <c r="F3" s="85"/>
+    </row>
+    <row r="4" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A4" s="86">
+        <v>15</v>
+      </c>
+      <c r="B4" s="87" t="s">
+        <v>100</v>
+      </c>
+      <c r="C4" s="87" t="s">
+        <v>142</v>
+      </c>
+      <c r="D4" s="88" t="s">
+        <v>136</v>
+      </c>
+      <c r="E4" s="88" t="s">
+        <v>133</v>
+      </c>
+      <c r="F4" s="89" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A5" s="90">
+        <v>3</v>
+      </c>
+      <c r="B5" s="91" t="s">
+        <v>100</v>
+      </c>
+      <c r="C5" s="91"/>
+      <c r="D5" s="92"/>
+      <c r="E5" s="92"/>
+      <c r="F5" s="93"/>
+    </row>
+    <row r="6" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A6" s="94">
+        <v>8</v>
+      </c>
+      <c r="B6" s="95" t="s">
+        <v>109</v>
+      </c>
+      <c r="C6" s="95"/>
+      <c r="D6" s="96"/>
+      <c r="E6" s="96"/>
+      <c r="F6" s="97"/>
+    </row>
+    <row r="7" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A7" s="98">
+        <v>32</v>
+      </c>
+      <c r="B7" s="99" t="s">
+        <v>109</v>
+      </c>
+      <c r="C7" s="99" t="s">
+        <v>143</v>
+      </c>
+      <c r="D7" s="100" t="s">
+        <v>136</v>
+      </c>
+      <c r="E7" s="100" t="s">
+        <v>132</v>
+      </c>
+      <c r="F7" s="101" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A8" s="102">
+        <v>33</v>
+      </c>
+      <c r="B8" s="103" t="s">
+        <v>109</v>
+      </c>
+      <c r="C8" s="103"/>
+      <c r="D8" s="104"/>
+      <c r="E8" s="104"/>
+      <c r="F8" s="105"/>
+    </row>
+    <row r="9" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A9" s="82">
+        <v>11</v>
+      </c>
+      <c r="B9" s="83" t="s">
+        <v>104</v>
+      </c>
+      <c r="C9" s="83" t="s">
+        <v>142</v>
+      </c>
+      <c r="D9" s="84" t="s">
+        <v>135</v>
+      </c>
+      <c r="E9" s="84" t="s">
+        <v>133</v>
+      </c>
+      <c r="F9" s="85" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A10" s="90">
+        <v>12</v>
+      </c>
+      <c r="B10" s="91" t="s">
+        <v>104</v>
+      </c>
+      <c r="C10" s="91"/>
+      <c r="D10" s="92"/>
+      <c r="E10" s="92"/>
+      <c r="F10" s="93"/>
+    </row>
+    <row r="11" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A11" s="58">
+        <v>30</v>
+      </c>
+      <c r="B11" s="75" t="s">
+        <v>114</v>
+      </c>
+      <c r="C11" s="75" t="s">
+        <v>142</v>
+      </c>
+      <c r="D11" s="76" t="s">
+        <v>135</v>
+      </c>
+      <c r="E11" s="76" t="s">
+        <v>132</v>
+      </c>
+      <c r="F11" s="77" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A12" s="78">
+        <v>31</v>
+      </c>
+      <c r="B12" s="79" t="s">
+        <v>114</v>
+      </c>
+      <c r="C12" s="79"/>
+      <c r="D12" s="80"/>
+      <c r="E12" s="80"/>
+      <c r="F12" s="81"/>
+    </row>
+    <row r="13" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A13" s="82">
+        <v>1</v>
+      </c>
+      <c r="B13" s="83" t="s">
+        <v>117</v>
+      </c>
+      <c r="C13" s="83"/>
+      <c r="D13" s="84"/>
+      <c r="E13" s="84"/>
+      <c r="F13" s="85"/>
+    </row>
+    <row r="14" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A14" s="86">
+        <v>25</v>
+      </c>
+      <c r="B14" s="87" t="s">
+        <v>117</v>
+      </c>
+      <c r="C14" s="87"/>
+      <c r="D14" s="88"/>
+      <c r="E14" s="88" t="s">
+        <v>133</v>
+      </c>
+      <c r="F14" s="89" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A15" s="90">
+        <v>26</v>
+      </c>
+      <c r="B15" s="91" t="s">
+        <v>117</v>
+      </c>
+      <c r="C15" s="91"/>
+      <c r="D15" s="92"/>
+      <c r="E15" s="92"/>
+      <c r="F15" s="93"/>
+    </row>
+    <row r="16" spans="1:6" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A16" s="106">
+        <v>6</v>
+      </c>
+      <c r="B16" s="107" t="s">
+        <v>121</v>
+      </c>
+      <c r="C16" s="107"/>
+      <c r="D16" s="108"/>
+      <c r="E16" s="108" t="s">
+        <v>132</v>
+      </c>
+      <c r="F16" s="109" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A17" s="110">
+        <v>10</v>
+      </c>
+      <c r="B17" s="111" t="s">
+        <v>107</v>
+      </c>
+      <c r="C17" s="111"/>
+      <c r="D17" s="112"/>
+      <c r="E17" s="112" t="s">
+        <v>134</v>
+      </c>
+      <c r="F17" s="113" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A18" s="58">
+        <v>2</v>
+      </c>
+      <c r="B18" s="75" t="s">
+        <v>101</v>
+      </c>
+      <c r="C18" s="75" t="s">
+        <v>142</v>
+      </c>
+      <c r="D18" s="76" t="s">
+        <v>135</v>
+      </c>
+      <c r="E18" s="76" t="s">
+        <v>133</v>
+      </c>
+      <c r="F18" s="77" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A19" s="78">
+        <v>19</v>
+      </c>
+      <c r="B19" s="79" t="s">
+        <v>101</v>
+      </c>
+      <c r="C19" s="79"/>
+      <c r="D19" s="80"/>
+      <c r="E19" s="80"/>
+      <c r="F19" s="81"/>
+    </row>
+    <row r="20" spans="1:6" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A20" s="110">
+        <v>56</v>
+      </c>
+      <c r="B20" s="111" t="s">
+        <v>110</v>
+      </c>
+      <c r="C20" s="111" t="s">
+        <v>143</v>
+      </c>
+      <c r="D20" s="112" t="s">
+        <v>135</v>
+      </c>
+      <c r="E20" s="112" t="s">
+        <v>133</v>
+      </c>
+      <c r="F20" s="113" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A21" s="106">
+        <v>7</v>
+      </c>
+      <c r="B21" s="107" t="s">
+        <v>120</v>
+      </c>
+      <c r="C21" s="107" t="s">
+        <v>142</v>
+      </c>
+      <c r="D21" s="108" t="s">
+        <v>135</v>
+      </c>
+      <c r="E21" s="108" t="s">
+        <v>132</v>
+      </c>
+      <c r="F21" s="109" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A22" s="110">
+        <v>81</v>
+      </c>
+      <c r="B22" s="111" t="s">
+        <v>122</v>
+      </c>
+      <c r="C22" s="111" t="s">
+        <v>143</v>
+      </c>
+      <c r="D22" s="112" t="s">
+        <v>135</v>
+      </c>
+      <c r="E22" s="112" t="s">
+        <v>132</v>
+      </c>
+      <c r="F22" s="113" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A23" s="106">
+        <v>36</v>
+      </c>
+      <c r="B23" s="107" t="s">
+        <v>103</v>
+      </c>
+      <c r="C23" s="107" t="s">
+        <v>142</v>
+      </c>
+      <c r="D23" s="108" t="s">
+        <v>135</v>
+      </c>
+      <c r="E23" s="108"/>
+      <c r="F23" s="109" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A24" s="82">
+        <v>21</v>
+      </c>
+      <c r="B24" s="83" t="s">
+        <v>113</v>
+      </c>
+      <c r="C24" s="83"/>
+      <c r="D24" s="84"/>
+      <c r="E24" s="84"/>
+      <c r="F24" s="85"/>
+    </row>
+    <row r="25" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A25" s="86">
+        <v>22</v>
+      </c>
+      <c r="B25" s="87" t="s">
+        <v>113</v>
+      </c>
+      <c r="C25" s="87"/>
+      <c r="D25" s="88"/>
+      <c r="E25" s="88"/>
+      <c r="F25" s="89" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="26" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A26" s="86">
+        <v>23</v>
+      </c>
+      <c r="B26" s="87" t="s">
+        <v>113</v>
+      </c>
+      <c r="C26" s="87"/>
+      <c r="D26" s="88"/>
+      <c r="E26" s="88"/>
+      <c r="F26" s="89"/>
+    </row>
+    <row r="27" spans="1:6" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A27" s="86">
+        <v>24</v>
+      </c>
+      <c r="B27" s="87" t="s">
+        <v>113</v>
+      </c>
+      <c r="C27" s="87"/>
+      <c r="D27" s="88"/>
+      <c r="E27" s="88"/>
+      <c r="F27" s="89"/>
+    </row>
+    <row r="28" spans="1:6" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A28" s="106">
+        <v>17</v>
+      </c>
+      <c r="B28" s="107" t="s">
+        <v>111</v>
+      </c>
+      <c r="C28" s="107"/>
+      <c r="D28" s="108" t="s">
+        <v>135</v>
+      </c>
+      <c r="E28" s="108" t="s">
+        <v>133</v>
+      </c>
+      <c r="F28" s="109" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="29" spans="1:6" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A29" s="110">
+        <v>35</v>
+      </c>
+      <c r="B29" s="111" t="s">
+        <v>106</v>
+      </c>
+      <c r="C29" s="111"/>
+      <c r="D29" s="112" t="s">
+        <v>135</v>
+      </c>
+      <c r="E29" s="112" t="s">
+        <v>132</v>
+      </c>
+      <c r="F29" s="113" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="30" spans="1:6" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A30" s="106">
+        <v>16</v>
+      </c>
+      <c r="B30" s="107" t="s">
+        <v>115</v>
+      </c>
+      <c r="C30" s="107"/>
+      <c r="D30" s="108" t="s">
+        <v>135</v>
+      </c>
+      <c r="E30" s="108" t="s">
+        <v>133</v>
+      </c>
+      <c r="F30" s="109" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="31" spans="1:6" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A31" s="110">
+        <v>34</v>
+      </c>
+      <c r="B31" s="111" t="s">
+        <v>116</v>
+      </c>
+      <c r="C31" s="111"/>
+      <c r="D31" s="112" t="s">
+        <v>135</v>
+      </c>
+      <c r="E31" s="112" t="s">
+        <v>132</v>
+      </c>
+      <c r="F31" s="113" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="32" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A32" s="58">
+        <v>20</v>
+      </c>
+      <c r="B32" s="75" t="s">
+        <v>108</v>
+      </c>
+      <c r="C32" s="75" t="s">
+        <v>142</v>
+      </c>
+      <c r="D32" s="76" t="s">
+        <v>135</v>
+      </c>
+      <c r="E32" s="76" t="s">
+        <v>133</v>
+      </c>
+      <c r="F32" s="77" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="33" spans="1:6" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A33" s="78">
+        <v>4</v>
+      </c>
+      <c r="B33" s="79" t="s">
+        <v>108</v>
+      </c>
+      <c r="C33" s="79"/>
+      <c r="D33" s="80"/>
+      <c r="E33" s="80"/>
+      <c r="F33" s="81"/>
+    </row>
+    <row r="34" spans="1:6" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A34" s="82">
+        <v>58</v>
+      </c>
+      <c r="B34" s="83" t="s">
+        <v>123</v>
+      </c>
+      <c r="C34" s="83" t="s">
+        <v>143</v>
+      </c>
+      <c r="D34" s="84" t="s">
+        <v>135</v>
+      </c>
+      <c r="E34" s="84" t="s">
+        <v>133</v>
+      </c>
+      <c r="F34" s="85" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="35" spans="1:6" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A35" s="106">
+        <v>9</v>
+      </c>
+      <c r="B35" s="107" t="s">
+        <v>102</v>
+      </c>
+      <c r="C35" s="107" t="s">
+        <v>142</v>
+      </c>
+      <c r="D35" s="108" t="s">
+        <v>135</v>
+      </c>
+      <c r="E35" s="108" t="s">
+        <v>132</v>
+      </c>
+      <c r="F35" s="109" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="36" spans="1:6" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A36" s="110">
+        <v>83</v>
+      </c>
+      <c r="B36" s="111" t="s">
+        <v>118</v>
+      </c>
+      <c r="C36" s="111" t="s">
+        <v>143</v>
+      </c>
+      <c r="D36" s="112" t="s">
+        <v>135</v>
+      </c>
+      <c r="E36" s="112" t="s">
+        <v>132</v>
+      </c>
+      <c r="F36" s="113" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="37" spans="1:6" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A37" s="106">
+        <v>37</v>
+      </c>
+      <c r="B37" s="107" t="s">
+        <v>105</v>
+      </c>
+      <c r="C37" s="107" t="s">
+        <v>142</v>
+      </c>
+      <c r="D37" s="108" t="s">
+        <v>135</v>
+      </c>
+      <c r="E37" s="108"/>
+      <c r="F37" s="109" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="38" spans="1:6" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A38" s="110">
+        <v>57</v>
+      </c>
+      <c r="B38" s="111" t="s">
+        <v>119</v>
+      </c>
+      <c r="C38" s="111" t="s">
+        <v>143</v>
+      </c>
+      <c r="D38" s="112" t="s">
+        <v>135</v>
+      </c>
+      <c r="E38" s="112" t="s">
+        <v>133</v>
+      </c>
+      <c r="F38" s="113" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="39" spans="1:6" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A39" s="106">
+        <v>82</v>
+      </c>
+      <c r="B39" s="107" t="s">
+        <v>112</v>
+      </c>
+      <c r="C39" s="107" t="s">
+        <v>143</v>
+      </c>
+      <c r="D39" s="108" t="s">
+        <v>135</v>
+      </c>
+      <c r="E39" s="108" t="s">
+        <v>132</v>
+      </c>
+      <c r="F39" s="109" t="s">
+        <v>131</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="A1:F1"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
 </worksheet>
 </file>